--- a/infra-apps/infra-apps-agenda.xlsx
+++ b/infra-apps/infra-apps-agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DB\Dropbox (Personal)\GitHub\cloud-core-2020-fix2\infra-apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7676AF-BD92-4CBD-9BC1-FFAADEC8E635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582EECF9-04E2-4329-A560-F746C71AD3C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>TIME</t>
   </si>
@@ -61,9 +61,6 @@
   <si>
     <t>Whiteboard Design Session:
 Big Data &amp; Visualization as an ADS</t>
-  </si>
-  <si>
-    <t>Whiteboard Design Session: Microsoft Cloud Workshop – Building a Resilient IaaS Architecture</t>
   </si>
   <si>
     <t>Team Challenge: Microsoft Cloud Workshop – Building a Resilient IaaS Architecture</t>
@@ -413,12 +410,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -428,6 +419,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -435,6 +429,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -751,12 +748,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FC6BD7-B650-432A-B472-A5F8121BDF19}">
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="F5" sqref="F5:F17"/>
+      <selection pane="topRight" activeCell="J25" sqref="J25:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -775,24 +772,24 @@
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -839,565 +836,565 @@
       <c r="A3" s="6">
         <v>0.3125</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+      <c r="B3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0.32291666666666669</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.34375</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>0.375</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>23</v>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>0.40625</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>0.4375</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="B15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>0.46875</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
+      <c r="B18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>0.5</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>38</v>
+      <c r="E21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>0.53125</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>0.5625</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>0.58333333333333304</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1858,50 +1855,50 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="M9:M17"/>
-    <mergeCell ref="K5:K17"/>
-    <mergeCell ref="J18:M20"/>
-    <mergeCell ref="K21:K28"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="L21:L28"/>
     <mergeCell ref="B18:E20"/>
     <mergeCell ref="J5:J8"/>
     <mergeCell ref="L5:L8"/>
     <mergeCell ref="J9:J17"/>
     <mergeCell ref="L9:L17"/>
+    <mergeCell ref="K5:K17"/>
+    <mergeCell ref="J18:M20"/>
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="C21:C28"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F3:I4"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="F18:I20"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C17"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="H21:H28"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="D9:D17"/>
     <mergeCell ref="E9:E17"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="E21:E28"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="B15:B17"/>
     <mergeCell ref="F5:F17"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="G9:G17"/>
-    <mergeCell ref="F18:I20"/>
     <mergeCell ref="M5:M8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C9:C17"/>
-    <mergeCell ref="M21:M28"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="G21:G28"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="I5:I8"/>
     <mergeCell ref="H9:H17"/>
     <mergeCell ref="I9:I17"/>
-    <mergeCell ref="H21:H28"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="M9:M17"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="L21:L28"/>
+    <mergeCell ref="M21:M28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/infra-apps/infra-apps-agenda.xlsx
+++ b/infra-apps/infra-apps-agenda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DB\Dropbox (Personal)\GitHub\cloud-core-2020-fix2\infra-apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582EECF9-04E2-4329-A560-F746C71AD3C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE813219-9853-4B5F-8900-F0289391B866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29820" yWindow="930" windowWidth="18225" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CloudCore Agenda" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>TIME</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Whiteboard Design Session: Whiteboard Design Session: Microsoft Cloud Workshop – Modern cloud apps</t>
+  </si>
+  <si>
+    <t>Whiteboard Design Session: Microsoft Cloud Workshop – Building a Resilient IaaS Architecture</t>
   </si>
 </sst>
 </file>
@@ -410,6 +413,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -419,9 +428,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -429,9 +435,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -750,10 +753,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FC6BD7-B650-432A-B472-A5F8121BDF19}">
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="J25" sqref="J25:J28"/>
+      <selection pane="topRight" activeCell="B21" sqref="B21:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -772,24 +775,24 @@
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="16" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="14" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -836,80 +839,80 @@
       <c r="A3" s="6">
         <v>0.3125</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0.32291666666666669</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -917,85 +920,85 @@
       <c r="A6" s="6">
         <v>0.34375</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>0.375</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13" t="s">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1003,235 +1006,235 @@
       <c r="A10" s="6">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>0.40625</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>0.4375</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="B15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>0.46875</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>0.5</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="G21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="I21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="12" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1239,122 +1242,122 @@
       <c r="A22" s="6">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>0.53125</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="10" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>0.5625</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
@@ -1855,13 +1858,22 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B18:E20"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="J9:J17"/>
-    <mergeCell ref="L9:L17"/>
-    <mergeCell ref="K5:K17"/>
-    <mergeCell ref="J18:M20"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="G9:G17"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="H9:H17"/>
+    <mergeCell ref="I9:I17"/>
+    <mergeCell ref="M9:M17"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="L21:L28"/>
+    <mergeCell ref="M21:M28"/>
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="C21:C28"/>
     <mergeCell ref="B1:E1"/>
@@ -1878,27 +1890,18 @@
     <mergeCell ref="F21:F28"/>
     <mergeCell ref="G21:G28"/>
     <mergeCell ref="H21:H28"/>
+    <mergeCell ref="B18:E20"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="J9:J17"/>
+    <mergeCell ref="L9:L17"/>
+    <mergeCell ref="K5:K17"/>
+    <mergeCell ref="J18:M20"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="D9:D17"/>
     <mergeCell ref="E9:E17"/>
     <mergeCell ref="F5:F17"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="G9:G17"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="H9:H17"/>
-    <mergeCell ref="I9:I17"/>
-    <mergeCell ref="M9:M17"/>
-    <mergeCell ref="K21:K28"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="L21:L28"/>
-    <mergeCell ref="M21:M28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
